--- a/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T17:16:24+00:00</t>
+    <t>2025-12-12T16:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T16:55:39+00:00</t>
+    <t>2025-12-12T17:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T17:41:10+00:00</t>
+    <t>2025-12-12T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/cleanup-gh-pages/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T18:00:23+00:00</t>
+    <t>2025-12-12T18:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
